--- a/data/output/FV2310_FV2304/INVOIC/31002.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5324" uniqueCount="439">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5345" uniqueCount="439">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1509,6 +1509,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U244" totalsRowShown="0">
+  <autoFilter ref="A1:U244"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1798,7 +1828,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13207,5 +13240,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/INVOIC/31002.xlsx
+++ b/data/output/FV2310_FV2304/INVOIC/31002.xlsx
@@ -2168,7 +2168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2191,6 +2191,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2199,6 +2202,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2639,7 +2645,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2975,7 +2981,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3209,7 +3215,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -3397,7 +3403,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3587,7 +3593,7 @@
         <v>398</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3775,7 +3781,7 @@
         <v>398</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3961,7 +3967,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -4355,7 +4361,7 @@
         <v>400</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2"/>
@@ -4497,7 +4503,7 @@
         <v>401</v>
       </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2"/>
@@ -4989,7 +4995,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5139,7 +5145,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5285,7 +5291,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5485,7 +5491,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5637,7 +5643,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -6311,7 +6317,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6515,7 +6521,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6661,7 +6667,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -7023,7 +7029,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7697,7 +7703,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7885,22 +7891,22 @@
       <c r="B108" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8" t="s">
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>429</v>
       </c>
       <c r="M108" s="5"/>
@@ -7918,31 +7924,31 @@
       <c r="A109" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8" t="s">
+      <c r="F109" s="9"/>
+      <c r="G109" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8" t="s">
+      <c r="H109" s="9"/>
+      <c r="I109" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="J109" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>429</v>
       </c>
       <c r="M109" s="5"/>
@@ -7960,29 +7966,29 @@
       <c r="A110" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8" t="s">
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="J110" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="9" t="s">
+      <c r="K110" s="9"/>
+      <c r="L110" s="10" t="s">
         <v>429</v>
       </c>
       <c r="M110" s="5"/>
@@ -8000,31 +8006,31 @@
       <c r="A111" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8" t="s">
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="K111" s="8" t="s">
+      <c r="K111" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="L111" s="9" t="s">
+      <c r="L111" s="10" t="s">
         <v>429</v>
       </c>
       <c r="M111" s="5"/>
@@ -8042,29 +8048,29 @@
       <c r="A112" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8" t="s">
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J112" s="8" t="s">
+      <c r="J112" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="K112" s="8"/>
-      <c r="L112" s="9" t="s">
+      <c r="K112" s="9"/>
+      <c r="L112" s="10" t="s">
         <v>429</v>
       </c>
       <c r="M112" s="5"/>
@@ -8082,29 +8088,29 @@
       <c r="A113" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="E113" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F113" s="8"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8" t="s">
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J113" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="9" t="s">
+      <c r="J113" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K113" s="9"/>
+      <c r="L113" s="10" t="s">
         <v>429</v>
       </c>
       <c r="M113" s="5"/>
@@ -8122,29 +8128,29 @@
       <c r="A114" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8" t="s">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9" t="s">
+      <c r="J114" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="L114" s="10" t="s">
         <v>429</v>
       </c>
       <c r="M114" s="5"/>
@@ -8172,27 +8178,27 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="N115" s="11" t="s">
+      <c r="N115" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O115" s="11" t="s">
+      <c r="O115" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11" t="s">
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13"/>
+      <c r="U115" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="V115" s="11"/>
+      <c r="V115" s="13"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -8208,33 +8214,33 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="N116" s="11" t="s">
+      <c r="N116" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O116" s="11" t="s">
+      <c r="O116" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P116" s="11" t="s">
+      <c r="P116" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="11" t="s">
+      <c r="Q116" s="13"/>
+      <c r="R116" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11" t="s">
+      <c r="S116" s="13"/>
+      <c r="T116" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="U116" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="V116" s="11"/>
+      <c r="U116" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -8250,31 +8256,31 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="N117" s="11" t="s">
+      <c r="N117" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O117" s="11" t="s">
+      <c r="O117" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P117" s="11" t="s">
+      <c r="P117" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="Q117" s="11"/>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11" t="s">
+      <c r="Q117" s="13"/>
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="U117" s="11" t="s">
+      <c r="U117" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="V117" s="11"/>
+      <c r="V117" s="13"/>
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="5" t="s">
@@ -8290,31 +8296,31 @@
       <c r="I118" s="5"/>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
-      <c r="L118" s="10" t="s">
+      <c r="L118" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M118" s="11" t="s">
+      <c r="M118" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="N118" s="11" t="s">
+      <c r="N118" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O118" s="11" t="s">
+      <c r="O118" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P118" s="11" t="s">
+      <c r="P118" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="Q118" s="11"/>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11" t="s">
+      <c r="Q118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="U118" s="11" t="s">
+      <c r="U118" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="V118" s="11" t="s">
+      <c r="V118" s="13" t="s">
         <v>406</v>
       </c>
     </row>
@@ -8332,31 +8338,31 @@
       <c r="I119" s="5"/>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
-      <c r="L119" s="10" t="s">
+      <c r="L119" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M119" s="11" t="s">
+      <c r="M119" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="N119" s="11" t="s">
+      <c r="N119" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O119" s="11" t="s">
+      <c r="O119" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P119" s="11" t="s">
+      <c r="P119" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Q119" s="11"/>
-      <c r="R119" s="11"/>
-      <c r="S119" s="11"/>
-      <c r="T119" s="11" t="s">
+      <c r="Q119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="U119" s="11" t="s">
+      <c r="U119" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="V119" s="11"/>
+      <c r="V119" s="13"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8372,31 +8378,31 @@
       <c r="I120" s="5"/>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
-      <c r="L120" s="10" t="s">
+      <c r="L120" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M120" s="11" t="s">
+      <c r="M120" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="N120" s="11" t="s">
+      <c r="N120" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O120" s="11" t="s">
+      <c r="O120" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P120" s="11" t="s">
+      <c r="P120" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11" t="s">
+      <c r="Q120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="U120" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="V120" s="11"/>
+      <c r="U120" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="V120" s="13"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
@@ -8412,31 +8418,31 @@
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
-      <c r="L121" s="10" t="s">
+      <c r="L121" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="M121" s="11" t="s">
+      <c r="M121" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="N121" s="11" t="s">
+      <c r="N121" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="O121" s="11" t="s">
+      <c r="O121" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P121" s="11" t="s">
+      <c r="P121" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="Q121" s="11"/>
-      <c r="R121" s="11"/>
-      <c r="S121" s="11"/>
-      <c r="T121" s="11" t="s">
+      <c r="Q121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="U121" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="V121" s="11"/>
+      <c r="U121" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="V121" s="13"/>
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="2" t="s">
@@ -8461,7 +8467,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8613,7 +8619,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8817,7 +8823,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8913,7 +8919,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9117,7 +9123,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9385,7 +9391,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9811,7 +9817,7 @@
         <v>414</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10131,7 +10137,7 @@
         <v>417</v>
       </c>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10335,7 +10341,7 @@
         <v>417</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10537,7 +10543,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10687,7 +10693,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10837,7 +10843,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11155,7 +11161,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11521,7 +11527,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11725,7 +11731,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11875,7 +11881,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12025,7 +12031,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12175,7 +12181,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12437,7 +12443,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12585,7 +12591,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N202" s="2"/>
@@ -12675,7 +12681,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12825,7 +12831,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -12975,7 +12981,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13121,7 +13127,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13321,7 +13327,7 @@
       </c>
       <c r="K217" s="2"/>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -13471,7 +13477,7 @@
       </c>
       <c r="K220" s="2"/>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -13621,7 +13627,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -13989,7 +13995,7 @@
         <v>426</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -14143,7 +14149,7 @@
         <v>427</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -14295,7 +14301,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14445,7 +14451,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -14593,7 +14599,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N242" s="2"/>
